--- a/Semilleros_IUD_2021.xlsx
+++ b/Semilleros_IUD_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\2. Universidades\4. IUDigital\1.Especializacion_Analitica_BigData\Caracterización Estadística de Datos\F30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88065AA-1C07-47B5-8D48-D02A18859897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1200900F-FB1B-4ADE-8575-73820C4F0405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,9 +435,6 @@
     <t>SEXO</t>
   </si>
   <si>
-    <t>SEMILLERO_ACTUAL</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
@@ -583,6 +580,9 @@
   </si>
   <si>
     <t>TMP_INST</t>
+  </si>
+  <si>
+    <t>SEMILLERO</t>
   </si>
 </sst>
 </file>
@@ -936,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CCB4AB-3389-4FC5-B42F-555A8F75A9A5}">
   <dimension ref="A1:O234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -963,46 +963,46 @@
         <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1" t="s">
         <v>131</v>
       </c>
       <c r="H1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" t="s">
         <v>168</v>
-      </c>
-      <c r="I1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K1" t="s">
-        <v>181</v>
-      </c>
-      <c r="L1" t="s">
-        <v>173</v>
-      </c>
-      <c r="M1" t="s">
-        <v>169</v>
       </c>
       <c r="N1" t="s">
         <v>132</v>
       </c>
       <c r="O1" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1028,28 +1028,28 @@
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K2" t="s">
         <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -1078,22 +1078,22 @@
         <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K3" t="s">
         <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -1116,31 +1116,31 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
         <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -1169,25 +1169,25 @@
         <v>6</v>
       </c>
       <c r="I5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1213,28 +1213,28 @@
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K6" t="s">
         <v>6</v>
       </c>
       <c r="L6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -1260,28 +1260,28 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K7" t="s">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1307,28 +1307,28 @@
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K8" t="s">
         <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -1354,28 +1354,28 @@
         <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K9" t="s">
         <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -1404,22 +1404,22 @@
         <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K10" t="s">
         <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1442,31 +1442,31 @@
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K11" t="s">
         <v>6</v>
       </c>
       <c r="L11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1492,28 +1492,28 @@
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
         <v>6</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1539,28 +1539,28 @@
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
         <v>6</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1586,28 +1586,28 @@
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
         <v>6</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1630,28 +1630,28 @@
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H15" t="s">
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K15" t="s">
         <v>6</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1680,22 +1680,22 @@
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s">
         <v>6</v>
       </c>
       <c r="L16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1721,28 +1721,28 @@
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1771,22 +1771,22 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K18" t="s">
         <v>6</v>
       </c>
       <c r="L18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1815,22 +1815,22 @@
         <v>6</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
         <v>6</v>
       </c>
       <c r="L19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1856,28 +1856,28 @@
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K20" t="s">
         <v>6</v>
       </c>
       <c r="L20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1906,22 +1906,22 @@
         <v>6</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K21" t="s">
         <v>6</v>
       </c>
       <c r="L21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1947,28 +1947,28 @@
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K22" t="s">
         <v>6</v>
       </c>
       <c r="L22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1994,28 +1994,28 @@
         <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K23" t="s">
         <v>6</v>
       </c>
       <c r="L23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M23" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -2044,22 +2044,22 @@
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K24" t="s">
         <v>6</v>
       </c>
       <c r="L24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M24" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2085,28 +2085,28 @@
         <v>6</v>
       </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K25" t="s">
         <v>6</v>
       </c>
       <c r="L25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -2135,22 +2135,22 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K26" t="s">
         <v>6</v>
       </c>
       <c r="L26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2179,22 +2179,22 @@
         <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K27" t="s">
         <v>6</v>
       </c>
       <c r="L27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2211,7 +2211,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F28" t="s">
         <v>5</v>
@@ -2223,22 +2223,22 @@
         <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K28" t="s">
         <v>6</v>
       </c>
       <c r="L28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N28" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2264,28 +2264,28 @@
         <v>6</v>
       </c>
       <c r="H29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K29" t="s">
         <v>6</v>
       </c>
       <c r="L29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2314,22 +2314,22 @@
         <v>6</v>
       </c>
       <c r="I30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K30" t="s">
         <v>6</v>
       </c>
       <c r="L30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O30" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2358,22 +2358,22 @@
         <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K31" t="s">
         <v>6</v>
       </c>
       <c r="L31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2399,28 +2399,28 @@
         <v>6</v>
       </c>
       <c r="H32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K32" t="s">
         <v>6</v>
       </c>
       <c r="L32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N32" t="s">
+        <v>153</v>
+      </c>
+      <c r="O32" t="s">
         <v>154</v>
-      </c>
-      <c r="O32" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2446,28 +2446,28 @@
         <v>6</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K33" t="s">
         <v>6</v>
       </c>
       <c r="L33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2493,28 +2493,28 @@
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K34" t="s">
         <v>6</v>
       </c>
       <c r="L34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2540,28 +2540,28 @@
         <v>6</v>
       </c>
       <c r="H35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J35" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K35" t="s">
         <v>6</v>
       </c>
       <c r="L35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2590,22 +2590,22 @@
         <v>6</v>
       </c>
       <c r="I36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K36" t="s">
         <v>6</v>
       </c>
       <c r="L36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -2631,28 +2631,28 @@
         <v>6</v>
       </c>
       <c r="H37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K37" t="s">
         <v>6</v>
       </c>
       <c r="L37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2678,28 +2678,28 @@
         <v>6</v>
       </c>
       <c r="H38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K38" t="s">
         <v>6</v>
       </c>
       <c r="L38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2725,28 +2725,28 @@
         <v>6</v>
       </c>
       <c r="H39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K39" t="s">
         <v>6</v>
       </c>
       <c r="L39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2775,22 +2775,22 @@
         <v>6</v>
       </c>
       <c r="I40" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K40" t="s">
         <v>6</v>
       </c>
       <c r="L40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2813,31 +2813,31 @@
         <v>12</v>
       </c>
       <c r="G41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K41" t="s">
         <v>6</v>
       </c>
       <c r="L41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2860,31 +2860,31 @@
         <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K42" t="s">
         <v>6</v>
       </c>
       <c r="L42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2910,28 +2910,28 @@
         <v>6</v>
       </c>
       <c r="H43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K43" t="s">
         <v>6</v>
       </c>
       <c r="L43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -2954,31 +2954,31 @@
         <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I44" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K44" t="s">
         <v>6</v>
       </c>
       <c r="L44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N44" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3004,28 +3004,28 @@
         <v>6</v>
       </c>
       <c r="H45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K45" t="s">
         <v>6</v>
       </c>
       <c r="L45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -3051,28 +3051,28 @@
         <v>6</v>
       </c>
       <c r="H46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I46" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K46" t="s">
         <v>6</v>
       </c>
       <c r="L46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O46" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -3101,22 +3101,22 @@
         <v>6</v>
       </c>
       <c r="I47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K47" t="s">
         <v>6</v>
       </c>
       <c r="L47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3145,22 +3145,22 @@
         <v>6</v>
       </c>
       <c r="I48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K48" t="s">
         <v>6</v>
       </c>
       <c r="L48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -3189,22 +3189,22 @@
         <v>6</v>
       </c>
       <c r="I49" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K49" t="s">
         <v>6</v>
       </c>
       <c r="L49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -3233,22 +3233,22 @@
         <v>6</v>
       </c>
       <c r="I50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K50" t="s">
         <v>6</v>
       </c>
       <c r="L50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M50" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -3277,22 +3277,22 @@
         <v>6</v>
       </c>
       <c r="I51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K51" t="s">
         <v>6</v>
       </c>
       <c r="L51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N51" t="s">
+        <v>153</v>
+      </c>
+      <c r="O51" t="s">
         <v>154</v>
-      </c>
-      <c r="O51" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -3318,28 +3318,28 @@
         <v>6</v>
       </c>
       <c r="H52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K52" t="s">
         <v>6</v>
       </c>
       <c r="L52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -3368,22 +3368,22 @@
         <v>6</v>
       </c>
       <c r="I53" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K53" t="s">
         <v>6</v>
       </c>
       <c r="L53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -3409,28 +3409,28 @@
         <v>6</v>
       </c>
       <c r="H54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J54" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K54" t="s">
         <v>6</v>
       </c>
       <c r="L54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M54" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O54" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -3456,28 +3456,28 @@
         <v>6</v>
       </c>
       <c r="H55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I55" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K55" t="s">
         <v>6</v>
       </c>
       <c r="L55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -3506,22 +3506,22 @@
         <v>6</v>
       </c>
       <c r="I56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K56" t="s">
         <v>6</v>
       </c>
       <c r="L56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M56" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -3550,22 +3550,22 @@
         <v>6</v>
       </c>
       <c r="I57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K57" t="s">
         <v>6</v>
       </c>
       <c r="L57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -3588,31 +3588,31 @@
         <v>12</v>
       </c>
       <c r="G58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K58" t="s">
         <v>6</v>
       </c>
       <c r="L58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -3632,34 +3632,34 @@
         <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N59" t="s">
+        <v>153</v>
+      </c>
+      <c r="O59" t="s">
         <v>154</v>
-      </c>
-      <c r="O59" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -3688,22 +3688,22 @@
         <v>6</v>
       </c>
       <c r="I60" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K60" t="s">
         <v>6</v>
       </c>
       <c r="L60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M60" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -3729,28 +3729,28 @@
         <v>6</v>
       </c>
       <c r="H61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I61" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K61" t="s">
         <v>6</v>
       </c>
       <c r="L61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M61" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -3776,28 +3776,28 @@
         <v>6</v>
       </c>
       <c r="H62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K62" t="s">
         <v>6</v>
       </c>
       <c r="L62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -3826,22 +3826,22 @@
         <v>6</v>
       </c>
       <c r="I63" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K63" t="s">
         <v>6</v>
       </c>
       <c r="L63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M63" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -3867,28 +3867,28 @@
         <v>6</v>
       </c>
       <c r="H64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K64" t="s">
         <v>6</v>
       </c>
       <c r="L64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M64" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -3917,22 +3917,22 @@
         <v>6</v>
       </c>
       <c r="I65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K65" t="s">
         <v>6</v>
       </c>
       <c r="L65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M65" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -3961,22 +3961,22 @@
         <v>6</v>
       </c>
       <c r="I66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K66" t="s">
         <v>6</v>
       </c>
       <c r="L66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -4002,28 +4002,28 @@
         <v>6</v>
       </c>
       <c r="H67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I67" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J67" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K67" t="s">
         <v>6</v>
       </c>
       <c r="L67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M67" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N67" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -4052,22 +4052,22 @@
         <v>6</v>
       </c>
       <c r="I68" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K68" t="s">
         <v>6</v>
       </c>
       <c r="L68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -4093,28 +4093,28 @@
         <v>6</v>
       </c>
       <c r="H69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K69" t="s">
         <v>6</v>
       </c>
       <c r="L69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M69" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -4143,22 +4143,22 @@
         <v>6</v>
       </c>
       <c r="I70" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K70" t="s">
         <v>6</v>
       </c>
       <c r="L70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M70" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O70" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -4187,22 +4187,22 @@
         <v>6</v>
       </c>
       <c r="I71" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K71" t="s">
         <v>6</v>
       </c>
       <c r="L71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M71" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N71" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -4231,22 +4231,22 @@
         <v>6</v>
       </c>
       <c r="I72" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K72" t="s">
         <v>6</v>
       </c>
       <c r="L72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M72" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -4272,28 +4272,28 @@
         <v>6</v>
       </c>
       <c r="H73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K73" t="s">
         <v>6</v>
       </c>
       <c r="L73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N73" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O73" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -4316,31 +4316,31 @@
         <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K74" t="s">
         <v>6</v>
       </c>
       <c r="L74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N74" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -4366,28 +4366,28 @@
         <v>6</v>
       </c>
       <c r="H75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K75" t="s">
         <v>6</v>
       </c>
       <c r="L75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M75" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N75" t="s">
+        <v>153</v>
+      </c>
+      <c r="O75" t="s">
         <v>154</v>
-      </c>
-      <c r="O75" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -4410,28 +4410,28 @@
         <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H76" t="s">
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N76" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -4460,22 +4460,22 @@
         <v>6</v>
       </c>
       <c r="I77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K77" t="s">
         <v>6</v>
       </c>
       <c r="L77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -4498,31 +4498,31 @@
         <v>5</v>
       </c>
       <c r="G78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I78" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J78" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K78" t="s">
         <v>6</v>
       </c>
       <c r="L78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -4548,28 +4548,28 @@
         <v>6</v>
       </c>
       <c r="H79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K79" t="s">
         <v>6</v>
       </c>
       <c r="L79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -4595,28 +4595,28 @@
         <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K80" t="s">
         <v>6</v>
       </c>
       <c r="L80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M80" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N80" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
@@ -4642,28 +4642,28 @@
         <v>6</v>
       </c>
       <c r="H81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K81" t="s">
         <v>6</v>
       </c>
       <c r="L81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N81" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
@@ -4689,28 +4689,28 @@
         <v>6</v>
       </c>
       <c r="H82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K82" t="s">
         <v>6</v>
       </c>
       <c r="L82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M82" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N82" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O82" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
@@ -4736,28 +4736,28 @@
         <v>6</v>
       </c>
       <c r="H83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J83" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N83" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
@@ -4780,31 +4780,31 @@
         <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J84" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K84" t="s">
         <v>6</v>
       </c>
       <c r="L84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M84" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
@@ -4830,28 +4830,28 @@
         <v>6</v>
       </c>
       <c r="H85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I85" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K85" t="s">
         <v>6</v>
       </c>
       <c r="L85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M85" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N85" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
@@ -4877,28 +4877,28 @@
         <v>6</v>
       </c>
       <c r="H86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I86" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J86" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K86" t="s">
         <v>6</v>
       </c>
       <c r="L86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N86" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
@@ -4921,31 +4921,31 @@
         <v>12</v>
       </c>
       <c r="G87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J87" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K87" t="s">
         <v>6</v>
       </c>
       <c r="L87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M87" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
@@ -4974,22 +4974,22 @@
         <v>6</v>
       </c>
       <c r="I88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K88" t="s">
         <v>6</v>
       </c>
       <c r="L88" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M88" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N88" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O88" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
@@ -5015,28 +5015,28 @@
         <v>6</v>
       </c>
       <c r="H89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J89" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K89" t="s">
         <v>6</v>
       </c>
       <c r="L89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M89" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N89" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -5065,22 +5065,22 @@
         <v>6</v>
       </c>
       <c r="I90" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K90" t="s">
         <v>6</v>
       </c>
       <c r="L90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N90" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -5106,28 +5106,28 @@
         <v>6</v>
       </c>
       <c r="H91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I91" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J91" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N91" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
@@ -5156,22 +5156,22 @@
         <v>6</v>
       </c>
       <c r="I92" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K92" t="s">
         <v>6</v>
       </c>
       <c r="L92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N92" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O92" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
@@ -5200,22 +5200,22 @@
         <v>6</v>
       </c>
       <c r="I93" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K93" t="s">
         <v>6</v>
       </c>
       <c r="L93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
@@ -5241,28 +5241,28 @@
         <v>6</v>
       </c>
       <c r="H94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I94" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
@@ -5288,28 +5288,28 @@
         <v>6</v>
       </c>
       <c r="H95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I95" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K95" t="s">
         <v>6</v>
       </c>
       <c r="L95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M95" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N95" t="s">
+        <v>153</v>
+      </c>
+      <c r="O95" t="s">
         <v>154</v>
-      </c>
-      <c r="O95" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
@@ -5335,28 +5335,28 @@
         <v>6</v>
       </c>
       <c r="H96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I96" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J96" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K96" t="s">
         <v>6</v>
       </c>
       <c r="L96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O96" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -5385,22 +5385,22 @@
         <v>6</v>
       </c>
       <c r="I97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K97" t="s">
         <v>6</v>
       </c>
       <c r="L97" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
@@ -5423,31 +5423,31 @@
         <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I98" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J98" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K98" t="s">
         <v>6</v>
       </c>
       <c r="L98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O98" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
@@ -5473,28 +5473,28 @@
         <v>6</v>
       </c>
       <c r="H99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I99" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J99" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K99" t="s">
         <v>6</v>
       </c>
       <c r="L99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -5523,22 +5523,22 @@
         <v>6</v>
       </c>
       <c r="I100" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K100" t="s">
         <v>6</v>
       </c>
       <c r="L100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M100" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -5567,22 +5567,22 @@
         <v>6</v>
       </c>
       <c r="I101" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K101" t="s">
         <v>6</v>
       </c>
       <c r="L101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
@@ -5608,28 +5608,28 @@
         <v>6</v>
       </c>
       <c r="H102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I102" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K102" t="s">
         <v>6</v>
       </c>
       <c r="L102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
@@ -5655,28 +5655,28 @@
         <v>6</v>
       </c>
       <c r="H103" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I103" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K103" t="s">
         <v>6</v>
       </c>
       <c r="L103" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M103" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
@@ -5699,31 +5699,31 @@
         <v>7</v>
       </c>
       <c r="G104" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H104" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I104" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J104" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K104" t="s">
         <v>6</v>
       </c>
       <c r="L104" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M104" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
@@ -5752,22 +5752,22 @@
         <v>6</v>
       </c>
       <c r="I105" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K105" t="s">
         <v>6</v>
       </c>
       <c r="L105" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M105" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N105" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -5796,22 +5796,22 @@
         <v>6</v>
       </c>
       <c r="I106" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K106" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L106" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N106" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -5840,22 +5840,22 @@
         <v>6</v>
       </c>
       <c r="I107" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K107" t="s">
         <v>6</v>
       </c>
       <c r="L107" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M107" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
@@ -5884,22 +5884,22 @@
         <v>6</v>
       </c>
       <c r="I108" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K108" t="s">
         <v>6</v>
       </c>
       <c r="L108" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
@@ -5925,28 +5925,28 @@
         <v>6</v>
       </c>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I109" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K109" t="s">
         <v>6</v>
       </c>
       <c r="L109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
@@ -5975,22 +5975,22 @@
         <v>6</v>
       </c>
       <c r="I110" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K110" t="s">
         <v>6</v>
       </c>
       <c r="L110" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M110" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
@@ -6016,28 +6016,28 @@
         <v>6</v>
       </c>
       <c r="H111" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I111" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J111" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K111" t="s">
         <v>6</v>
       </c>
       <c r="L111" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N111" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O111" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -6066,22 +6066,22 @@
         <v>6</v>
       </c>
       <c r="I112" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K112" t="s">
         <v>6</v>
       </c>
       <c r="L112" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M112" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N112" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O112" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
@@ -6110,22 +6110,22 @@
         <v>6</v>
       </c>
       <c r="I113" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K113" t="s">
         <v>6</v>
       </c>
       <c r="L113" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M113" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
@@ -6151,28 +6151,28 @@
         <v>6</v>
       </c>
       <c r="H114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I114" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J114" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K114" t="s">
         <v>6</v>
       </c>
       <c r="L114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M114" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N114" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
@@ -6201,22 +6201,22 @@
         <v>6</v>
       </c>
       <c r="I115" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K115" t="s">
         <v>6</v>
       </c>
       <c r="L115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N115" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O115" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
@@ -6245,22 +6245,22 @@
         <v>6</v>
       </c>
       <c r="I116" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K116" t="s">
         <v>6</v>
       </c>
       <c r="L116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M116" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N116" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
@@ -6289,7 +6289,7 @@
         <v>6</v>
       </c>
       <c r="I117" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K117" t="s">
         <v>6</v>
@@ -6298,13 +6298,13 @@
         <v>6</v>
       </c>
       <c r="M117" t="s">
+        <v>151</v>
+      </c>
+      <c r="N117" t="s">
         <v>152</v>
       </c>
-      <c r="N117" t="s">
-        <v>153</v>
-      </c>
       <c r="O117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
@@ -6333,22 +6333,22 @@
         <v>6</v>
       </c>
       <c r="I118" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K118" t="s">
         <v>6</v>
       </c>
       <c r="L118" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M118" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N118" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
@@ -6374,28 +6374,28 @@
         <v>6</v>
       </c>
       <c r="H119" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I119" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J119" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K119" t="s">
         <v>6</v>
       </c>
       <c r="L119" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M119" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O119" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -6421,28 +6421,28 @@
         <v>6</v>
       </c>
       <c r="H120" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I120" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J120" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K120" t="s">
         <v>6</v>
       </c>
       <c r="L120" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M120" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N120" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O120" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
@@ -6468,28 +6468,28 @@
         <v>6</v>
       </c>
       <c r="H121" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I121" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J121" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K121" t="s">
         <v>6</v>
       </c>
       <c r="L121" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N121" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O121" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
@@ -6515,28 +6515,28 @@
         <v>6</v>
       </c>
       <c r="H122" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I122" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J122" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K122" t="s">
         <v>6</v>
       </c>
       <c r="L122" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M122" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O122" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
@@ -6562,28 +6562,28 @@
         <v>6</v>
       </c>
       <c r="H123" t="s">
+        <v>133</v>
+      </c>
+      <c r="I123" t="s">
+        <v>173</v>
+      </c>
+      <c r="J123" t="s">
         <v>134</v>
       </c>
-      <c r="I123" t="s">
-        <v>174</v>
-      </c>
-      <c r="J123" t="s">
-        <v>135</v>
-      </c>
       <c r="K123" t="s">
         <v>6</v>
       </c>
       <c r="L123" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M123" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N123" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O123" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
@@ -6609,28 +6609,28 @@
         <v>6</v>
       </c>
       <c r="H124" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I124" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J124" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K124" t="s">
         <v>6</v>
       </c>
       <c r="L124" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M124" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N124" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
@@ -6659,22 +6659,22 @@
         <v>6</v>
       </c>
       <c r="I125" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K125" t="s">
         <v>6</v>
       </c>
       <c r="L125" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M125" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
@@ -6700,28 +6700,28 @@
         <v>6</v>
       </c>
       <c r="H126" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I126" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J126" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K126" t="s">
         <v>6</v>
       </c>
       <c r="L126" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M126" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N126" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
@@ -6750,22 +6750,22 @@
         <v>6</v>
       </c>
       <c r="I127" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K127" t="s">
         <v>6</v>
       </c>
       <c r="L127" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M127" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O127" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
@@ -6788,28 +6788,28 @@
         <v>5</v>
       </c>
       <c r="G128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H128" t="s">
         <v>6</v>
       </c>
       <c r="I128" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K128" t="s">
         <v>6</v>
       </c>
       <c r="L128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M128" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N128" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
@@ -6838,22 +6838,22 @@
         <v>6</v>
       </c>
       <c r="I129" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K129" t="s">
         <v>6</v>
       </c>
       <c r="L129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M129" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N129" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O129" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
@@ -6879,28 +6879,28 @@
         <v>6</v>
       </c>
       <c r="H130" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I130" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J130" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K130" t="s">
         <v>6</v>
       </c>
       <c r="L130" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M130" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N130" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O130" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
@@ -6929,22 +6929,22 @@
         <v>6</v>
       </c>
       <c r="I131" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K131" t="s">
         <v>6</v>
       </c>
       <c r="L131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M131" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N131" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
@@ -6973,22 +6973,22 @@
         <v>6</v>
       </c>
       <c r="I132" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K132" t="s">
         <v>6</v>
       </c>
       <c r="L132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N132" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
@@ -7014,28 +7014,28 @@
         <v>6</v>
       </c>
       <c r="H133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I133" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J133" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K133" t="s">
         <v>6</v>
       </c>
       <c r="L133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M133" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N133" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O133" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
@@ -7064,22 +7064,22 @@
         <v>6</v>
       </c>
       <c r="I134" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K134" t="s">
         <v>6</v>
       </c>
       <c r="L134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M134" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N134" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O134" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
@@ -7105,28 +7105,28 @@
         <v>6</v>
       </c>
       <c r="H135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I135" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J135" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K135" t="s">
         <v>6</v>
       </c>
       <c r="L135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N135" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O135" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
@@ -7152,28 +7152,28 @@
         <v>6</v>
       </c>
       <c r="H136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I136" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J136" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K136" t="s">
         <v>6</v>
       </c>
       <c r="L136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M136" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N136" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O136" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
@@ -7199,28 +7199,28 @@
         <v>6</v>
       </c>
       <c r="H137" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I137" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K137" t="s">
         <v>6</v>
       </c>
       <c r="L137" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M137" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N137" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
@@ -7249,22 +7249,22 @@
         <v>6</v>
       </c>
       <c r="I138" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K138" t="s">
         <v>6</v>
       </c>
       <c r="L138" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M138" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N138" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O138" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
@@ -7290,28 +7290,28 @@
         <v>6</v>
       </c>
       <c r="H139" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I139" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J139" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K139" t="s">
         <v>6</v>
       </c>
       <c r="L139" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M139" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N139" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O139" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
@@ -7340,22 +7340,22 @@
         <v>6</v>
       </c>
       <c r="I140" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K140" t="s">
         <v>6</v>
       </c>
       <c r="L140" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N140" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
@@ -7384,22 +7384,22 @@
         <v>6</v>
       </c>
       <c r="I141" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K141" t="s">
         <v>6</v>
       </c>
       <c r="L141" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M141" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N141" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O141" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
@@ -7428,22 +7428,22 @@
         <v>6</v>
       </c>
       <c r="I142" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K142" t="s">
         <v>6</v>
       </c>
       <c r="L142" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M142" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N142" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O142" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
@@ -7469,28 +7469,28 @@
         <v>6</v>
       </c>
       <c r="H143" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I143" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J143" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K143" t="s">
         <v>6</v>
       </c>
       <c r="L143" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M143" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N143" t="s">
+        <v>153</v>
+      </c>
+      <c r="O143" t="s">
         <v>154</v>
-      </c>
-      <c r="O143" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
@@ -7519,22 +7519,22 @@
         <v>6</v>
       </c>
       <c r="I144" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K144" t="s">
         <v>6</v>
       </c>
       <c r="L144" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M144" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N144" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O144" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
@@ -7557,31 +7557,31 @@
         <v>11</v>
       </c>
       <c r="G145" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H145" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I145" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J145" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K145" t="s">
         <v>6</v>
       </c>
       <c r="L145" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M145" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N145" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O145" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
@@ -7610,22 +7610,22 @@
         <v>6</v>
       </c>
       <c r="I146" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K146" t="s">
         <v>6</v>
       </c>
       <c r="L146" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N146" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O146" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
@@ -7651,28 +7651,28 @@
         <v>6</v>
       </c>
       <c r="H147" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I147" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J147" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K147" t="s">
         <v>6</v>
       </c>
       <c r="L147" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M147" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N147" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O147" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
@@ -7698,28 +7698,28 @@
         <v>6</v>
       </c>
       <c r="H148" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I148" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J148" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K148" t="s">
         <v>6</v>
       </c>
       <c r="L148" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N148" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O148" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
@@ -7745,13 +7745,13 @@
         <v>6</v>
       </c>
       <c r="H149" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I149" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J149" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K149" t="s">
         <v>6</v>
@@ -7760,13 +7760,13 @@
         <v>6</v>
       </c>
       <c r="M149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N149" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O149" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
@@ -7789,31 +7789,31 @@
         <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H150" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I150" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J150" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K150" t="s">
         <v>6</v>
       </c>
       <c r="L150" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M150" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N150" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O150" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
@@ -7839,28 +7839,28 @@
         <v>6</v>
       </c>
       <c r="H151" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I151" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J151" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K151" t="s">
         <v>6</v>
       </c>
       <c r="L151" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M151" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O151" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
@@ -7886,28 +7886,28 @@
         <v>6</v>
       </c>
       <c r="H152" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I152" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J152" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K152" t="s">
         <v>6</v>
       </c>
       <c r="L152" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M152" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O152" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
@@ -7933,28 +7933,28 @@
         <v>6</v>
       </c>
       <c r="H153" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I153" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J153" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K153" t="s">
         <v>6</v>
       </c>
       <c r="L153" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M153" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N153" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O153" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
@@ -7983,22 +7983,22 @@
         <v>6</v>
       </c>
       <c r="I154" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K154" t="s">
         <v>6</v>
       </c>
       <c r="L154" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M154" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O154" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
@@ -8021,31 +8021,31 @@
         <v>7</v>
       </c>
       <c r="G155" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H155" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I155" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J155" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K155" t="s">
         <v>6</v>
       </c>
       <c r="L155" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M155" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N155" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O155" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
@@ -8068,31 +8068,31 @@
         <v>7</v>
       </c>
       <c r="G156" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H156" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I156" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J156" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K156" t="s">
         <v>6</v>
       </c>
       <c r="L156" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M156" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N156" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O156" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
@@ -8121,22 +8121,22 @@
         <v>6</v>
       </c>
       <c r="I157" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K157" t="s">
         <v>6</v>
       </c>
       <c r="L157" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M157" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N157" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
@@ -8165,22 +8165,22 @@
         <v>6</v>
       </c>
       <c r="I158" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K158" t="s">
         <v>6</v>
       </c>
       <c r="L158" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M158" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N158" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O158" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
@@ -8203,31 +8203,31 @@
         <v>50</v>
       </c>
       <c r="G159" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H159" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I159" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J159" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K159" t="s">
         <v>6</v>
       </c>
       <c r="L159" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M159" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N159" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O159" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
@@ -8253,28 +8253,28 @@
         <v>6</v>
       </c>
       <c r="H160" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I160" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J160" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K160" t="s">
         <v>6</v>
       </c>
       <c r="L160" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M160" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N160" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O160" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
@@ -8297,31 +8297,31 @@
         <v>50</v>
       </c>
       <c r="G161" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H161" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I161" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J161" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K161" t="s">
         <v>6</v>
       </c>
       <c r="L161" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M161" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N161" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O161" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
@@ -8350,22 +8350,22 @@
         <v>6</v>
       </c>
       <c r="I162" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K162" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L162" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M162" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N162" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
@@ -8391,28 +8391,28 @@
         <v>6</v>
       </c>
       <c r="H163" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I163" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J163" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K163" t="s">
         <v>6</v>
       </c>
       <c r="L163" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M163" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N163" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O163" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -8438,28 +8438,28 @@
         <v>6</v>
       </c>
       <c r="H164" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I164" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J164" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K164" t="s">
         <v>6</v>
       </c>
       <c r="L164" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M164" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N164" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -8485,28 +8485,28 @@
         <v>6</v>
       </c>
       <c r="H165" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I165" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J165" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K165" t="s">
         <v>6</v>
       </c>
       <c r="L165" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M165" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N165" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O165" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
@@ -8535,22 +8535,22 @@
         <v>6</v>
       </c>
       <c r="I166" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K166" t="s">
         <v>6</v>
       </c>
       <c r="L166" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M166" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N166" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O166" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
@@ -8576,28 +8576,28 @@
         <v>6</v>
       </c>
       <c r="H167" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I167" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J167" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K167" t="s">
         <v>6</v>
       </c>
       <c r="L167" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M167" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N167" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O167" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -8623,28 +8623,28 @@
         <v>6</v>
       </c>
       <c r="H168" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I168" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J168" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K168" t="s">
         <v>6</v>
       </c>
       <c r="L168" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M168" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N168" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O168" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
@@ -8670,28 +8670,28 @@
         <v>6</v>
       </c>
       <c r="H169" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I169" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J169" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K169" t="s">
         <v>6</v>
       </c>
       <c r="L169" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M169" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N169" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O169" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
@@ -8714,31 +8714,31 @@
         <v>5</v>
       </c>
       <c r="G170" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H170" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I170" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J170" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K170" t="s">
         <v>6</v>
       </c>
       <c r="L170" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M170" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N170" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O170" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
@@ -8767,22 +8767,22 @@
         <v>6</v>
       </c>
       <c r="I171" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K171" t="s">
         <v>6</v>
       </c>
       <c r="L171" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M171" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N171" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O171" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
@@ -8811,22 +8811,22 @@
         <v>6</v>
       </c>
       <c r="I172" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K172" t="s">
         <v>6</v>
       </c>
       <c r="L172" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M172" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N172" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O172" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
@@ -8852,28 +8852,28 @@
         <v>6</v>
       </c>
       <c r="H173" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I173" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J173" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K173" t="s">
         <v>6</v>
       </c>
       <c r="L173" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M173" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N173" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O173" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
@@ -8899,28 +8899,28 @@
         <v>6</v>
       </c>
       <c r="H174" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I174" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J174" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K174" t="s">
         <v>6</v>
       </c>
       <c r="L174" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M174" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N174" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O174" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -8943,28 +8943,28 @@
         <v>5</v>
       </c>
       <c r="G175" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H175" t="s">
         <v>6</v>
       </c>
       <c r="I175" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K175" t="s">
         <v>6</v>
       </c>
       <c r="L175" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M175" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N175" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O175" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
@@ -8993,22 +8993,22 @@
         <v>6</v>
       </c>
       <c r="I176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K176" t="s">
         <v>6</v>
       </c>
       <c r="L176" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M176" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N176" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O176" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
@@ -9034,28 +9034,28 @@
         <v>6</v>
       </c>
       <c r="H177" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I177" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J177" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K177" t="s">
         <v>6</v>
       </c>
       <c r="L177" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M177" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N177" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O177" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
@@ -9084,22 +9084,22 @@
         <v>6</v>
       </c>
       <c r="I178" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K178" t="s">
         <v>6</v>
       </c>
       <c r="L178" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M178" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N178" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O178" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
@@ -9128,22 +9128,22 @@
         <v>6</v>
       </c>
       <c r="I179" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K179" t="s">
         <v>6</v>
       </c>
       <c r="L179" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M179" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N179" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O179" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
@@ -9169,28 +9169,28 @@
         <v>6</v>
       </c>
       <c r="H180" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I180" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J180" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K180" t="s">
         <v>6</v>
       </c>
       <c r="L180" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M180" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N180" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O180" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
@@ -9216,28 +9216,28 @@
         <v>6</v>
       </c>
       <c r="H181" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I181" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J181" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K181" t="s">
         <v>6</v>
       </c>
       <c r="L181" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M181" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N181" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O181" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
@@ -9266,22 +9266,22 @@
         <v>6</v>
       </c>
       <c r="I182" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K182" t="s">
         <v>6</v>
       </c>
       <c r="L182" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M182" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N182" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O182" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
@@ -9310,22 +9310,22 @@
         <v>6</v>
       </c>
       <c r="I183" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K183" t="s">
         <v>6</v>
       </c>
       <c r="L183" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M183" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N183" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O183" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
@@ -9348,31 +9348,31 @@
         <v>50</v>
       </c>
       <c r="G184" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H184" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I184" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J184" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K184" t="s">
         <v>6</v>
       </c>
       <c r="L184" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M184" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N184" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O184" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
@@ -9398,28 +9398,28 @@
         <v>6</v>
       </c>
       <c r="H185" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I185" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J185" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K185" t="s">
         <v>6</v>
       </c>
       <c r="L185" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M185" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N185" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O185" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
@@ -9448,22 +9448,22 @@
         <v>6</v>
       </c>
       <c r="I186" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K186" t="s">
         <v>6</v>
       </c>
       <c r="L186" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M186" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N186" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O186" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
@@ -9489,28 +9489,28 @@
         <v>6</v>
       </c>
       <c r="H187" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I187" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J187" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K187" t="s">
         <v>6</v>
       </c>
       <c r="L187" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M187" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N187" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O187" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
@@ -9536,28 +9536,28 @@
         <v>6</v>
       </c>
       <c r="H188" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I188" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J188" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K188" t="s">
         <v>6</v>
       </c>
       <c r="L188" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M188" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N188" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O188" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
@@ -9580,31 +9580,31 @@
         <v>5</v>
       </c>
       <c r="G189" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H189" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I189" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J189" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K189" t="s">
         <v>6</v>
       </c>
       <c r="L189" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M189" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N189" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O189" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
@@ -9630,28 +9630,28 @@
         <v>6</v>
       </c>
       <c r="H190" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I190" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J190" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K190" t="s">
         <v>6</v>
       </c>
       <c r="L190" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M190" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N190" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O190" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
@@ -9680,22 +9680,22 @@
         <v>6</v>
       </c>
       <c r="I191" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K191" t="s">
         <v>6</v>
       </c>
       <c r="L191" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M191" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N191" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O191" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
@@ -9718,31 +9718,31 @@
         <v>5</v>
       </c>
       <c r="G192" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H192" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I192" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J192" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K192" t="s">
         <v>6</v>
       </c>
       <c r="L192" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M192" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N192" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O192" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
@@ -9768,28 +9768,28 @@
         <v>6</v>
       </c>
       <c r="H193" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I193" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J193" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K193" t="s">
         <v>6</v>
       </c>
       <c r="L193" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M193" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N193" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O193" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
@@ -9812,31 +9812,31 @@
         <v>12</v>
       </c>
       <c r="G194" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H194" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I194" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J194" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K194" t="s">
         <v>6</v>
       </c>
       <c r="L194" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M194" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N194" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O194" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
@@ -9865,22 +9865,22 @@
         <v>6</v>
       </c>
       <c r="I195" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K195" t="s">
         <v>6</v>
       </c>
       <c r="L195" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M195" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N195" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O195" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
@@ -9909,22 +9909,22 @@
         <v>6</v>
       </c>
       <c r="I196" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K196" t="s">
         <v>6</v>
       </c>
       <c r="L196" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M196" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N196" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O196" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
@@ -9950,28 +9950,28 @@
         <v>6</v>
       </c>
       <c r="H197" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I197" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J197" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K197" t="s">
         <v>6</v>
       </c>
       <c r="L197" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M197" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N197" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O197" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
@@ -9997,28 +9997,28 @@
         <v>6</v>
       </c>
       <c r="H198" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I198" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J198" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K198" t="s">
         <v>6</v>
       </c>
       <c r="L198" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M198" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N198" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O198" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
@@ -10047,22 +10047,22 @@
         <v>6</v>
       </c>
       <c r="I199" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K199" t="s">
         <v>6</v>
       </c>
       <c r="L199" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M199" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N199" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O199" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
@@ -10088,28 +10088,28 @@
         <v>6</v>
       </c>
       <c r="H200" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I200" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J200" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K200" t="s">
         <v>6</v>
       </c>
       <c r="L200" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M200" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N200" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O200" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
@@ -10135,28 +10135,28 @@
         <v>6</v>
       </c>
       <c r="H201" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I201" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J201" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K201" t="s">
         <v>6</v>
       </c>
       <c r="L201" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M201" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N201" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O201" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
@@ -10185,22 +10185,22 @@
         <v>6</v>
       </c>
       <c r="I202" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K202" t="s">
         <v>6</v>
       </c>
       <c r="L202" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M202" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N202" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O202" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
@@ -10223,31 +10223,31 @@
         <v>7</v>
       </c>
       <c r="G203" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H203" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I203" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J203" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K203" t="s">
         <v>6</v>
       </c>
       <c r="L203" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M203" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N203" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O203" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
@@ -10270,31 +10270,31 @@
         <v>7</v>
       </c>
       <c r="G204" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H204" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I204" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J204" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K204" t="s">
         <v>6</v>
       </c>
       <c r="L204" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M204" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N204" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O204" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
@@ -10317,31 +10317,31 @@
         <v>7</v>
       </c>
       <c r="G205" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H205" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I205" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J205" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K205" t="s">
         <v>6</v>
       </c>
       <c r="L205" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M205" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N205" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O205" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
@@ -10367,28 +10367,28 @@
         <v>6</v>
       </c>
       <c r="H206" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I206" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J206" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K206" t="s">
         <v>6</v>
       </c>
       <c r="L206" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M206" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N206" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O206" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
@@ -10414,28 +10414,28 @@
         <v>6</v>
       </c>
       <c r="H207" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I207" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J207" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K207" t="s">
         <v>6</v>
       </c>
       <c r="L207" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M207" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N207" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O207" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
@@ -10464,22 +10464,22 @@
         <v>6</v>
       </c>
       <c r="I208" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K208" t="s">
         <v>6</v>
       </c>
       <c r="L208" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M208" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N208" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O208" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
@@ -10505,28 +10505,28 @@
         <v>6</v>
       </c>
       <c r="H209" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I209" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J209" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K209" t="s">
         <v>6</v>
       </c>
       <c r="L209" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M209" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N209" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O209" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
@@ -10549,31 +10549,31 @@
         <v>11</v>
       </c>
       <c r="G210" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H210" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I210" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J210" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K210" t="s">
         <v>6</v>
       </c>
       <c r="L210" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M210" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N210" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O210" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
@@ -10596,31 +10596,31 @@
         <v>12</v>
       </c>
       <c r="G211" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H211" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I211" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J211" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K211" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L211" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M211" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N211" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O211" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
@@ -10649,22 +10649,22 @@
         <v>6</v>
       </c>
       <c r="I212" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K212" t="s">
         <v>6</v>
       </c>
       <c r="L212" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M212" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N212" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O212" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
@@ -10690,13 +10690,13 @@
         <v>6</v>
       </c>
       <c r="H213" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I213" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J213" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K213" t="s">
         <v>6</v>
@@ -10705,13 +10705,13 @@
         <v>6</v>
       </c>
       <c r="M213" t="s">
+        <v>151</v>
+      </c>
+      <c r="N213" t="s">
         <v>152</v>
       </c>
-      <c r="N213" t="s">
-        <v>153</v>
-      </c>
       <c r="O213" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
@@ -10740,22 +10740,22 @@
         <v>6</v>
       </c>
       <c r="I214" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K214" t="s">
         <v>6</v>
       </c>
       <c r="L214" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M214" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N214" t="s">
         <v>3</v>
       </c>
       <c r="O214" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
@@ -10781,28 +10781,28 @@
         <v>6</v>
       </c>
       <c r="H215" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I215" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J215" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K215" t="s">
         <v>6</v>
       </c>
       <c r="L215" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M215" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N215" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O215" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
@@ -10828,28 +10828,28 @@
         <v>6</v>
       </c>
       <c r="H216" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I216" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J216" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K216" t="s">
         <v>6</v>
       </c>
       <c r="L216" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M216" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N216" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O216" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
@@ -10878,22 +10878,22 @@
         <v>6</v>
       </c>
       <c r="I217" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K217" t="s">
         <v>6</v>
       </c>
       <c r="L217" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M217" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N217" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O217" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
@@ -10922,22 +10922,22 @@
         <v>6</v>
       </c>
       <c r="I218" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K218" t="s">
         <v>6</v>
       </c>
       <c r="L218" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M218" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N218" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O218" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
@@ -10966,22 +10966,22 @@
         <v>6</v>
       </c>
       <c r="I219" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K219" t="s">
         <v>6</v>
       </c>
       <c r="L219" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M219" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N219" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O219" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
@@ -11010,22 +11010,22 @@
         <v>6</v>
       </c>
       <c r="I220" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K220" t="s">
         <v>6</v>
       </c>
       <c r="L220" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M220" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N220" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O220" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
@@ -11051,28 +11051,28 @@
         <v>6</v>
       </c>
       <c r="H221" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I221" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J221" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K221" t="s">
         <v>6</v>
       </c>
       <c r="L221" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M221" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N221" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O221" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
@@ -11101,22 +11101,22 @@
         <v>6</v>
       </c>
       <c r="I222" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K222" t="s">
         <v>6</v>
       </c>
       <c r="L222" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M222" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N222" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O222" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
@@ -11142,28 +11142,28 @@
         <v>6</v>
       </c>
       <c r="H223" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I223" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J223" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K223" t="s">
         <v>6</v>
       </c>
       <c r="L223" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M223" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N223" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O223" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
@@ -11192,22 +11192,22 @@
         <v>6</v>
       </c>
       <c r="I224" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K224" t="s">
         <v>6</v>
       </c>
       <c r="L224" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M224" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N224" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O224" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
@@ -11236,22 +11236,22 @@
         <v>6</v>
       </c>
       <c r="I225" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K225" t="s">
         <v>6</v>
       </c>
       <c r="L225" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M225" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N225" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O225" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
@@ -11277,28 +11277,28 @@
         <v>6</v>
       </c>
       <c r="H226" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I226" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J226" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K226" t="s">
         <v>6</v>
       </c>
       <c r="L226" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M226" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N226" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O226" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
@@ -11327,22 +11327,22 @@
         <v>6</v>
       </c>
       <c r="I227" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K227" t="s">
         <v>6</v>
       </c>
       <c r="L227" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M227" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N227" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O227" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
@@ -11365,31 +11365,31 @@
         <v>90</v>
       </c>
       <c r="G228" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H228" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I228" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J228" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K228" t="s">
         <v>6</v>
       </c>
       <c r="L228" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M228" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N228" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O228" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
@@ -11418,22 +11418,22 @@
         <v>6</v>
       </c>
       <c r="I229" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K229" t="s">
         <v>6</v>
       </c>
       <c r="L229" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M229" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N229" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O229" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
@@ -11462,22 +11462,22 @@
         <v>6</v>
       </c>
       <c r="I230" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K230" t="s">
         <v>6</v>
       </c>
       <c r="L230" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M230" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N230" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O230" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
@@ -11503,28 +11503,28 @@
         <v>6</v>
       </c>
       <c r="H231" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I231" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J231" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K231" t="s">
         <v>6</v>
       </c>
       <c r="L231" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M231" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N231" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O231" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.25">
@@ -11553,7 +11553,7 @@
         <v>6</v>
       </c>
       <c r="I232" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K232" t="s">
         <v>6</v>
@@ -11562,13 +11562,13 @@
         <v>6</v>
       </c>
       <c r="M232" t="s">
+        <v>151</v>
+      </c>
+      <c r="N232" t="s">
         <v>152</v>
       </c>
-      <c r="N232" t="s">
-        <v>153</v>
-      </c>
       <c r="O232" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
@@ -11591,31 +11591,31 @@
         <v>7</v>
       </c>
       <c r="G233" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H233" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I233" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J233" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K233" t="s">
         <v>6</v>
       </c>
       <c r="L233" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M233" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N233" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O233" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
@@ -11641,28 +11641,28 @@
         <v>6</v>
       </c>
       <c r="H234" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I234" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J234" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K234" t="s">
         <v>6</v>
       </c>
       <c r="L234" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M234" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N234" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O234" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
